--- a/dogScraper/available_dogs.xlsx
+++ b/dogScraper/available_dogs.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+  <si>
+    <t>Breezy</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/44513274/</t>
+  </si>
   <si>
     <t>Luna</t>
   </si>
@@ -40,22 +46,40 @@
     <t>https://www.sfspca.org/adoptions/pet-details/45012114/</t>
   </si>
   <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45012150/</t>
-  </si>
-  <si>
     <t>Allie</t>
   </si>
   <si>
     <t>https://www.sfspca.org/adoptions/pet-details/45012009/</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45053219/</t>
+    <t>Chiquitita</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45049802/</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45049805/</t>
+  </si>
+  <si>
+    <t>Skinny</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45049763/</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45053169/</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45062086/</t>
   </si>
   <si>
     <t>Burke</t>
@@ -64,10 +88,31 @@
     <t>https://www.sfspca.org/adoptions/pet-details/45063055/</t>
   </si>
   <si>
-    <t>Bee Iris</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45063170/</t>
+    <t>Tia</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/43896298/</t>
+  </si>
+  <si>
+    <t>Arlo</t>
+  </si>
+  <si>
+    <t>https://phs-spca.org/adopt/dogs/</t>
+  </si>
+  <si>
+    <t>Chaparro</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>Macaroni</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Huey</t>
   </si>
 </sst>
 </file>
@@ -139,51 +184,51 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>897731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Breezy.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="0"/>
+          <a:ext cx="904875" cy="897731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Luna.jpg"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="0"/>
-          <a:ext cx="1000125" cy="1000125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Cammie.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Luna.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -196,8 +241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1076325"/>
-          <a:ext cx="985838" cy="1000125"/>
+          <a:off x="3429000" y="1266825"/>
+          <a:ext cx="1000125" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -215,13 +260,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>985838</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="Banjo.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Cammie.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -234,8 +279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2152650"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="3429000" y="2533650"/>
+          <a:ext cx="985838" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -259,7 +304,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="Augie.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="Banjo.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -272,7 +317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="3228975"/>
+          <a:off x="3429000" y="3800475"/>
           <a:ext cx="1000125" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -297,7 +342,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Sugar.jpg"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Augie.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -310,7 +355,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="4305300"/>
+          <a:off x="3429000" y="5067300"/>
           <a:ext cx="1000125" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -348,7 +393,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="5381625"/>
+          <a:off x="3429000" y="6334125"/>
           <a:ext cx="1000125" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -373,7 +418,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Cash.jpg"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Chiquitita.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -386,7 +431,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="6457950"/>
+          <a:off x="3429000" y="7600950"/>
           <a:ext cx="1000125" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -405,13 +450,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>950119</xdr:colOff>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1000125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Burke.jpg"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Rocky.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -424,8 +469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="7534275"/>
-          <a:ext cx="950119" cy="1000125"/>
+          <a:off x="3429000" y="8867775"/>
+          <a:ext cx="1000125" cy="1000125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -449,7 +494,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Bee Iris.jpg"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Skinny.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -462,8 +507,388 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="8610600"/>
+          <a:off x="3429000" y="10134600"/>
           <a:ext cx="1000125" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>935831</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Sophie.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="11401425"/>
+          <a:ext cx="935831" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="Moon.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="12668250"/>
+          <a:ext cx="1000125" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>950119</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Burke.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="13935075"/>
+          <a:ext cx="950119" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1000125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Tia.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="15201900"/>
+          <a:ext cx="1000125" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1188244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Arlo.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="16468725"/>
+          <a:ext cx="1190625" cy="1188244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Chaparro.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="17735550"/>
+          <a:ext cx="1190625" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>788194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Bingo.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="19002375"/>
+          <a:ext cx="1190625" cy="788194"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1188244</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="Macaroni.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="20269200"/>
+          <a:ext cx="1190625" cy="1188244"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="Jack.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="21536025"/>
+          <a:ext cx="1190625" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1190625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="Huey.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="22802850"/>
+          <a:ext cx="1190625" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,16 +1185,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="85" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="100" customHeight="1" zeroHeight="1"/>
   <cols>
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="85" customHeight="1">
+    <row r="1" spans="1:2" ht="100" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="85" customHeight="1">
+    <row r="2" spans="1:2" ht="100" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -785,7 +1210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="85" customHeight="1">
+    <row r="3" spans="1:2" ht="100" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,7 +1218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="85" customHeight="1">
+    <row r="4" spans="1:2" ht="100" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="85" customHeight="1">
+    <row r="5" spans="1:2" ht="100" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -809,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="85" customHeight="1">
+    <row r="6" spans="1:2" ht="100" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -817,7 +1242,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="85" customHeight="1">
+    <row r="7" spans="1:2" ht="100" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -825,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="85" customHeight="1">
+    <row r="8" spans="1:2" ht="100" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -833,12 +1258,92 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="85" customHeight="1">
+    <row r="9" spans="1:2" ht="100" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="100" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="100" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="100" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="100" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="100" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="100" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="100" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="100" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="100" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="100" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -852,8 +1357,18 @@
     <hyperlink ref="B7" r:id="rId7"/>
     <hyperlink ref="B8" r:id="rId8"/>
     <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="B16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="B18" r:id="rId18"/>
+    <hyperlink ref="B19" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/dogScraper/available_dogs.xlsx
+++ b/dogScraper/available_dogs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Breezy</t>
   </si>
@@ -40,70 +40,73 @@
     <t>https://www.sfspca.org/adoptions/pet-details/44999347/</t>
   </si>
   <si>
-    <t>Augie</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45012114/</t>
+    <t>Chiquitita</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45049802/</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45049805/</t>
+  </si>
+  <si>
+    <t>Skinny</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45049763/</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45053181/</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45053169/</t>
+  </si>
+  <si>
+    <t>Gemma</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45053667/</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45062086/</t>
+  </si>
+  <si>
+    <t>Rosita</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45061964/</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/45063055/</t>
+  </si>
+  <si>
+    <t>Tia</t>
+  </si>
+  <si>
+    <t>https://www.sfspca.org/adoptions/pet-details/43896298/</t>
   </si>
   <si>
     <t>Allie</t>
   </si>
   <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45012009/</t>
-  </si>
-  <si>
-    <t>Chiquitita</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45049802/</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45049805/</t>
-  </si>
-  <si>
-    <t>Skinny</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45049763/</t>
-  </si>
-  <si>
-    <t>Sophie</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45053169/</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45062086/</t>
-  </si>
-  <si>
-    <t>Burke</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/45063055/</t>
-  </si>
-  <si>
-    <t>Tia</t>
-  </si>
-  <si>
-    <t>https://www.sfspca.org/adoptions/pet-details/43896298/</t>
+    <t>https://phs-spca.org/adopt/dogs/</t>
   </si>
   <si>
     <t>Arlo</t>
-  </si>
-  <si>
-    <t>https://phs-spca.org/adopt/dogs/</t>
-  </si>
-  <si>
-    <t>Chaparro</t>
-  </si>
-  <si>
-    <t>Bingo</t>
   </si>
   <si>
     <t>Macaroni</t>
@@ -184,9 +187,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
+      <xdr:colOff>651510</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>897731</xdr:rowOff>
+      <xdr:rowOff>646367</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -203,8 +206,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="0"/>
-          <a:ext cx="904875" cy="897731"/>
+          <a:off x="2762250" y="0"/>
+          <a:ext cx="651510" cy="646367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -222,9 +225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>720090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -241,8 +244,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1266825"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="1009650"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -260,9 +263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>985838</xdr:colOff>
+      <xdr:colOff>709803</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>720090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -279,8 +282,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2533650"/>
-          <a:ext cx="985838" cy="1000125"/>
+          <a:off x="2762250" y="2019300"/>
+          <a:ext cx="709803" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -298,9 +301,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>720090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -317,8 +320,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="3800475"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="3028950"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -336,13 +339,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Augie.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="Chiquitita.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -355,8 +358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="5067300"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="4038600"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -374,13 +377,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="Allie.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="Rocky.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -393,8 +396,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="6334125"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="5048250"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -412,13 +415,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="Chiquitita.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="Skinny.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -431,8 +434,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="7600950"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="6057900"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -450,13 +453,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>579501</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="Rocky.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="Martina.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -469,8 +472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="8867775"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="7067550"/>
+          <a:ext cx="579501" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -488,13 +491,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>673799</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="Skinny.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="Sophie.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -507,8 +510,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="10134600"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="8077200"/>
+          <a:ext cx="673799" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -526,13 +529,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>935831</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="Sophie.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="Gemma.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -545,8 +548,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="11401425"/>
-          <a:ext cx="935831" cy="1000125"/>
+          <a:off x="2762250" y="9086850"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -564,9 +567,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
+      <xdr:rowOff>720090</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -583,8 +586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="12668250"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="10096500"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -602,13 +605,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>950119</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="Burke.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="Rosita.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -621,8 +624,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="13935075"/>
-          <a:ext cx="950119" cy="1000125"/>
+          <a:off x="2762250" y="11106150"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,13 +643,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1000125</xdr:colOff>
+      <xdr:colOff>684085</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1000125</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="Tia.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="Burke.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -659,8 +662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="15201900"/>
-          <a:ext cx="1000125" cy="1000125"/>
+          <a:off x="2762250" y="12115800"/>
+          <a:ext cx="684085" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,13 +681,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:colOff>720090</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>1188244</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="Arlo.jpg"/>
+      <xdr:rowOff>720090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="Tia.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -697,8 +700,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="16468725"/>
-          <a:ext cx="1190625" cy="1188244"/>
+          <a:off x="2762250" y="13125450"/>
+          <a:ext cx="720090" cy="720090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,13 +719,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="Chaparro.jpg"/>
+      <xdr:rowOff>857250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15" descr="Allie.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -735,8 +738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="17735550"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="2762250" y="14135100"/>
+          <a:ext cx="857250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -754,13 +757,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>788194</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="Bingo.jpg"/>
+      <xdr:rowOff>855535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="Arlo.jpg"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -773,8 +776,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="19002375"/>
-          <a:ext cx="1190625" cy="788194"/>
+          <a:off x="2762250" y="15144750"/>
+          <a:ext cx="857250" cy="855535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -792,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1188244</xdr:rowOff>
+      <xdr:rowOff>855535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -811,8 +814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="20269200"/>
-          <a:ext cx="1190625" cy="1188244"/>
+          <a:off x="2762250" y="16154400"/>
+          <a:ext cx="857250" cy="855535"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -830,9 +833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
+      <xdr:rowOff>857250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,8 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="21536025"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="2762250" y="17164050"/>
+          <a:ext cx="857250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,9 +871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:colOff>857250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>1190625</xdr:rowOff>
+      <xdr:rowOff>857250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -887,8 +890,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="22802850"/>
-          <a:ext cx="1190625" cy="1190625"/>
+          <a:off x="2762250" y="18173700"/>
+          <a:ext cx="857250" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1189,12 +1192,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="100" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="80" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="100" customHeight="1">
+    <row r="1" spans="1:2" ht="80" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="100" customHeight="1">
+    <row r="2" spans="1:2" ht="80" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="100" customHeight="1">
+    <row r="3" spans="1:2" ht="80" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="100" customHeight="1">
+    <row r="4" spans="1:2" ht="80" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="100" customHeight="1">
+    <row r="5" spans="1:2" ht="80" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="100" customHeight="1">
+    <row r="6" spans="1:2" ht="80" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="100" customHeight="1">
+    <row r="7" spans="1:2" ht="80" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="100" customHeight="1">
+    <row r="8" spans="1:2" ht="80" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="100" customHeight="1">
+    <row r="9" spans="1:2" ht="80" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="100" customHeight="1">
+    <row r="10" spans="1:2" ht="80" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="100" customHeight="1">
+    <row r="11" spans="1:2" ht="80" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="100" customHeight="1">
+    <row r="12" spans="1:2" ht="80" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="100" customHeight="1">
+    <row r="13" spans="1:2" ht="80" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="100" customHeight="1">
+    <row r="14" spans="1:2" ht="80" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1306,44 +1309,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="100" customHeight="1">
+    <row r="15" spans="1:2" ht="80" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="100" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="80" customHeight="1">
       <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="100" customHeight="1">
+    </row>
+    <row r="17" spans="1:2" ht="80" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="100" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="80" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="100" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="80" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
